--- a/manualTesting/Cases.xlsx
+++ b/manualTesting/Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="355">
   <si>
     <t>ID</t>
   </si>
@@ -96,18 +96,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по дате От конкретного дня</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по дате До конкретного дня</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по активности – Активна</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по активности – Неактивна</t>
-  </si>
-  <si>
     <t>Открыть приложение "В Хосписе"</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t xml:space="preserve"> Беспроводной интернет подключен</t>
   </si>
   <si>
-    <t>Ввести в поле "Логин" значение "login2"</t>
-  </si>
-  <si>
     <t>Поле принимает значение</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>Зайти в приложение "В Хосписе"</t>
   </si>
   <si>
-    <t>Ввести в поле "Пароль" значение "password2"</t>
-  </si>
-  <si>
     <t>Оставить поле "Пароль" пустым</t>
   </si>
   <si>
@@ -477,12 +459,6 @@
     <t>Нажать "Сохранить"</t>
   </si>
   <si>
-    <t>Ввести в поле "Логин" значение " login2 "</t>
-  </si>
-  <si>
-    <t>Ввести в поле "Пароль" значение " password2 "</t>
-  </si>
-  <si>
     <t>Авторизация пользователя при зарегистрированными логине и пароле с пробелом перед и после (negative)</t>
   </si>
   <si>
@@ -666,12 +642,6 @@
     <t>Выбрать пункт, например "Обьявление"</t>
   </si>
   <si>
-    <t>Сортировка новостей на страничке "Редактирование новостей" по порядку</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по категории</t>
-  </si>
-  <si>
     <t>Новость отображается в списке</t>
   </si>
   <si>
@@ -858,9 +828,6 @@
     <t>Ввести данные в поле "Логин" в виде SQL-инъекции  1”or “1” = “1</t>
   </si>
   <si>
-    <t>Ввести в поле "Пароль" значение "login2"</t>
-  </si>
-  <si>
     <t>Ввести данные в поле "Пароль" в виде SQL-инъекции  1”or “1” = “1</t>
   </si>
   <si>
@@ -882,24 +849,6 @@
     <t>Ошибка — "Неверно указан период"</t>
   </si>
   <si>
-    <t>Фильтрация новостей на страничке "Новости" по дате От До (От идет перед До)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Новости" по дате От До (От идет после До) (negative)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке "Новости" по дате От До (От совпадает с До)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке Редактирования  по дате От До (От идет перед До)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке Редактирования  по дате От До (От идет после До)</t>
-  </si>
-  <si>
-    <t>Фильтрация новостей на страничке Редактирования  по дате От До (От совпадает с До)</t>
-  </si>
-  <si>
     <t>Эмулятор Android API 29, доступ к интернету</t>
   </si>
   <si>
@@ -1056,9 +1005,6 @@
     <t>Нажать на кнопку "Фильтровать"</t>
   </si>
   <si>
-    <t>Фильтрация новостей на страничке "Новости" по дате От До ненаступивших дней</t>
-  </si>
-  <si>
     <t>Выбрать дату От — любую после сегодняшнего дня</t>
   </si>
   <si>
@@ -1077,9 +1023,6 @@
     <t>Раздел "Редактирование новостей" отображается</t>
   </si>
   <si>
-    <t>Фильтрация новостей на страничке "Редактирование новостей" по дате От До ненаступивших дней</t>
-  </si>
-  <si>
     <t>Отображение цитат на странице с цитатами</t>
   </si>
   <si>
@@ -1090,6 +1033,57 @@
   </si>
   <si>
     <t>Выбрать дату будующего дня</t>
+  </si>
+  <si>
+    <t>Ввести данные в поле "Пароль" в виде SQL-инъекции  1’ or ‘1’ = ‘1</t>
+  </si>
+  <si>
+    <t>Ввести в поле "Логин" зарегистрированные данные, ограниченные пробелом</t>
+  </si>
+  <si>
+    <t>Ввести в поле "Пароль" зарегистрированные данные, ограниченные пробелом</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Новости" по дате От До (От идет перед До)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Новости" по дате От До (От идет после До) (negative)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Новости" по дате От До (От совпадает с До)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Новости" по дате От До ненаступивших дней</t>
+  </si>
+  <si>
+    <t>Сортировка новостей на странице "Редактирование новостей" по порядку</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по категории</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице Редактирования  по дате От До (От идет перед До)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице Редактирования  по дате От До (От идет после До)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице Редактирования  по дате От До (От совпадает с До)</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по дате От конкретного дня</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по дате До конкретного дня</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по дате От До ненаступивших дней</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по активности – Активна</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей на странице "Редактирование новостей" по активности – Неактивна</t>
   </si>
 </sst>
 </file>
@@ -1726,17 +1720,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1744,14 +1752,30 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1768,42 +1792,12 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2100,8 +2094,8 @@
   </sheetPr>
   <dimension ref="A1:J499"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I493" sqref="I493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2112,7 +2106,7 @@
     <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="68.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" style="15" customWidth="1"/>
     <col min="8" max="8" width="3" style="16" customWidth="1"/>
     <col min="9" max="9" width="81.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="17" style="5" customWidth="1"/>
@@ -2134,24 +2128,24 @@
       <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="80"/>
+      <c r="I1" s="92"/>
       <c r="J1" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="89">
+      <c r="A2" s="94">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>192</v>
+      <c r="B2" s="95" t="s">
+        <v>184</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>9</v>
@@ -2160,19 +2154,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>10</v>
@@ -2188,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H3" s="7">
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>10</v>
@@ -2210,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>10</v>
@@ -2232,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>10</v>
@@ -2254,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>10</v>
@@ -2276,24 +2270,24 @@
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="89">
+      <c r="A8" s="94">
         <v>2</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>198</v>
+      <c r="B8" s="95" t="s">
+        <v>190</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>9</v>
@@ -2302,19 +2296,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>10</v>
@@ -2330,13 +2324,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>10</v>
@@ -2352,13 +2346,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>10</v>
@@ -2374,13 +2368,13 @@
         <v>4</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>10</v>
@@ -2396,13 +2390,13 @@
         <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>10</v>
@@ -2418,24 +2412,24 @@
         <v>6</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="81">
+      <c r="A14" s="93">
         <v>3</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>219</v>
+      <c r="B14" s="70" t="s">
+        <v>209</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>9</v>
@@ -2444,19 +2438,19 @@
         <v>7</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>10</v>
@@ -2464,7 +2458,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="63"/>
-      <c r="B15" s="70"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="56"/>
       <c r="D15" s="54"/>
       <c r="E15" s="57"/>
@@ -2472,13 +2466,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>10</v>
@@ -2486,7 +2480,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="63"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="56"/>
       <c r="D16" s="54"/>
       <c r="E16" s="57"/>
@@ -2494,13 +2488,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>10</v>
@@ -2508,7 +2502,7 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="63"/>
-      <c r="B17" s="70"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="56"/>
       <c r="D17" s="54"/>
       <c r="E17" s="57"/>
@@ -2516,13 +2510,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>10</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="63"/>
-      <c r="B18" s="70"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="56"/>
       <c r="D18" s="54"/>
       <c r="E18" s="57"/>
@@ -2538,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>10</v>
@@ -2552,7 +2546,7 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="63"/>
-      <c r="B19" s="70"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="56"/>
       <c r="D19" s="54"/>
       <c r="E19" s="57"/>
@@ -2560,24 +2554,24 @@
         <v>6</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="81">
+      <c r="A20" s="93">
         <v>4</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>206</v>
+      <c r="B20" s="70" t="s">
+        <v>198</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>9</v>
@@ -2586,19 +2580,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>10</v>
@@ -2606,7 +2600,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="63"/>
-      <c r="B21" s="70"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="56"/>
       <c r="D21" s="54"/>
       <c r="E21" s="57"/>
@@ -2614,13 +2608,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>10</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="63"/>
-      <c r="B22" s="70"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="56"/>
       <c r="D22" s="54"/>
       <c r="E22" s="57"/>
@@ -2636,13 +2630,13 @@
         <v>3</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>10</v>
@@ -2650,7 +2644,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="63"/>
-      <c r="B23" s="70"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="56"/>
       <c r="D23" s="54"/>
       <c r="E23" s="57"/>
@@ -2658,24 +2652,24 @@
         <v>4</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="81">
+      <c r="A24" s="93">
         <v>5</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>209</v>
+      <c r="B24" s="70" t="s">
+        <v>201</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>9</v>
@@ -2684,19 +2678,19 @@
         <v>7</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>10</v>
@@ -2704,7 +2698,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="63"/>
-      <c r="B25" s="70"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="56"/>
       <c r="D25" s="54"/>
       <c r="E25" s="57"/>
@@ -2712,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>10</v>
@@ -2726,7 +2720,7 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
       <c r="A26" s="63"/>
-      <c r="B26" s="70"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="56"/>
       <c r="D26" s="54"/>
       <c r="E26" s="57"/>
@@ -2734,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>10</v>
@@ -2748,7 +2742,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="63"/>
-      <c r="B27" s="70"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="56"/>
       <c r="D27" s="54"/>
       <c r="E27" s="57"/>
@@ -2756,24 +2750,24 @@
         <v>4</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="81">
+      <c r="A28" s="93">
         <v>6</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>281</v>
+      <c r="B28" s="70" t="s">
+        <v>270</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>9</v>
@@ -2782,19 +2776,19 @@
         <v>7</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>10</v>
@@ -2802,7 +2796,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="63"/>
-      <c r="B29" s="70"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="56"/>
       <c r="D29" s="54"/>
       <c r="E29" s="57"/>
@@ -2810,13 +2804,13 @@
         <v>2</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>10</v>
@@ -2824,7 +2818,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="63"/>
-      <c r="B30" s="70"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="56"/>
       <c r="D30" s="54"/>
       <c r="E30" s="57"/>
@@ -2832,13 +2826,13 @@
         <v>3</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>10</v>
@@ -2846,7 +2840,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="63"/>
-      <c r="B31" s="70"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="56"/>
       <c r="D31" s="54"/>
       <c r="E31" s="57"/>
@@ -2854,23 +2848,23 @@
         <v>4</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="81">
+      <c r="A32" s="93">
         <v>7</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="70" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="29" t="s">
@@ -2880,19 +2874,19 @@
         <v>7</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>10</v>
@@ -2900,7 +2894,7 @@
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1">
       <c r="A33" s="63"/>
-      <c r="B33" s="70"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="56"/>
       <c r="D33" s="54"/>
       <c r="E33" s="57"/>
@@ -2908,13 +2902,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>10</v>
@@ -2922,7 +2916,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="63"/>
-      <c r="B34" s="70"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="56"/>
       <c r="D34" s="54"/>
       <c r="E34" s="57"/>
@@ -2930,13 +2924,13 @@
         <v>3</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>10</v>
@@ -2944,7 +2938,7 @@
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1">
       <c r="A35" s="63"/>
-      <c r="B35" s="70"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="56"/>
       <c r="D35" s="54"/>
       <c r="E35" s="57"/>
@@ -2952,24 +2946,24 @@
         <v>4</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="81">
+      <c r="A36" s="93">
         <v>8</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>9</v>
@@ -2978,19 +2972,19 @@
         <v>7</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>10</v>
@@ -3006,13 +3000,13 @@
         <v>2</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>10</v>
@@ -3028,13 +3022,13 @@
         <v>3</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>10</v>
@@ -3050,13 +3044,13 @@
         <v>4</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>13</v>
@@ -3067,36 +3061,36 @@
         <v>9</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="56"/>
       <c r="D41" s="54"/>
       <c r="E41" s="57"/>
@@ -3104,21 +3098,21 @@
         <v>2</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="56"/>
       <c r="D42" s="54"/>
       <c r="E42" s="57"/>
@@ -3126,21 +3120,21 @@
         <v>3</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J42" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="56"/>
       <c r="D43" s="54"/>
       <c r="E43" s="57"/>
@@ -3148,21 +3142,21 @@
         <v>4</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="56"/>
       <c r="D44" s="54"/>
       <c r="E44" s="57"/>
@@ -3170,21 +3164,21 @@
         <v>5</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="56"/>
       <c r="D45" s="54"/>
       <c r="E45" s="57"/>
@@ -3192,13 +3186,13 @@
         <v>6</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>6</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>10</v>
@@ -3209,124 +3203,124 @@
         <v>10</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.95" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="56"/>
       <c r="D47" s="54"/>
-      <c r="E47" s="68"/>
+      <c r="E47" s="77"/>
       <c r="F47" s="7">
         <v>2</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="56"/>
       <c r="D48" s="54"/>
-      <c r="E48" s="68"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="7">
         <v>3</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="56"/>
       <c r="D49" s="54"/>
-      <c r="E49" s="68"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="7">
         <v>4</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="25.95" customHeight="1">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="56"/>
       <c r="D50" s="54"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="7">
         <v>5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="56"/>
       <c r="D51" s="54"/>
       <c r="E51" s="67"/>
@@ -3334,13 +3328,13 @@
         <v>6</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>10</v>
@@ -3351,28 +3345,28 @@
         <v>11</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>10</v>
@@ -3388,13 +3382,13 @@
         <v>2</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>10</v>
@@ -3410,13 +3404,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>10</v>
@@ -3432,13 +3426,13 @@
         <v>4</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H55" s="7">
         <v>4</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>10</v>
@@ -3454,13 +3448,13 @@
         <v>5</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>10</v>
@@ -3476,13 +3470,13 @@
         <v>6</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H57" s="7">
         <v>6</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>10</v>
@@ -3493,28 +3487,28 @@
         <v>12</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>10</v>
@@ -3530,13 +3524,13 @@
         <v>2</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>10</v>
@@ -3552,13 +3546,13 @@
         <v>3</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>10</v>
@@ -3574,13 +3568,13 @@
         <v>4</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H61" s="7">
         <v>4</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>10</v>
@@ -3596,13 +3590,13 @@
         <v>5</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H62" s="7">
         <v>5</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>10</v>
@@ -3618,23 +3612,23 @@
         <v>6</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H63" s="7">
         <v>6</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13.95" customHeight="1">
-      <c r="A64" s="75">
+      <c r="A64" s="80">
         <v>13</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="29" t="s">
@@ -3644,161 +3638,161 @@
         <v>8</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1">
-      <c r="A65" s="70"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="71"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="31"/>
       <c r="F65" s="7">
         <v>2</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1">
-      <c r="A66" s="70"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="71"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="31"/>
       <c r="F66" s="7">
         <v>3</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
-      <c r="A67" s="70"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="71"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="31"/>
       <c r="F67" s="7">
         <v>4</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1">
-      <c r="A68" s="76"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="71"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="64"/>
       <c r="F68" s="7">
         <v>5</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H68" s="7">
         <v>5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="71"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="74"/>
       <c r="E69" s="64"/>
       <c r="F69" s="7">
         <v>6</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H69" s="7">
         <v>6</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A70" s="76"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="71"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="64"/>
       <c r="F70" s="7">
         <v>7</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H70" s="7">
         <v>7</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A71" s="75">
+      <c r="A71" s="80">
         <v>14</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="78" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="29" t="s">
@@ -3808,161 +3802,161 @@
         <v>8</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
-      <c r="A72" s="70"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="71"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="31"/>
       <c r="F72" s="7">
         <v>2</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H72" s="7">
         <v>2</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J72" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1">
-      <c r="A73" s="70"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="71"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="31"/>
       <c r="F73" s="7">
         <v>3</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J73" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1">
-      <c r="A74" s="70"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="71"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="31"/>
       <c r="F74" s="7">
         <v>4</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H74" s="7">
         <v>4</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J74" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1">
-      <c r="A75" s="76"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="71"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="64"/>
       <c r="F75" s="7">
         <v>5</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J75" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="76"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="71"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="64"/>
       <c r="F76" s="7">
         <v>6</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H76" s="7">
         <v>6</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J76" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
-      <c r="A77" s="76"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="71"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="64"/>
       <c r="F77" s="7">
         <v>7</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H77" s="7">
         <v>7</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A78" s="91">
+      <c r="A78" s="68">
         <v>15</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="29" t="s">
@@ -3972,173 +3966,173 @@
         <v>8</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J78" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
-      <c r="A79" s="92"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="71"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="31"/>
       <c r="F79" s="7">
         <v>2</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J79" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="71"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="31"/>
       <c r="F80" s="7">
         <v>3</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H80" s="7">
         <v>3</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J80" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
-      <c r="A81" s="92"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="71"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="31"/>
       <c r="F81" s="7">
         <v>4</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H81" s="7">
         <v>4</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J81" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1">
-      <c r="A82" s="92"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="71"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="64"/>
       <c r="F82" s="7">
         <v>5</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H82" s="7">
         <v>5</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J82" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1">
-      <c r="A83" s="92"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="71"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="64"/>
       <c r="F83" s="7">
         <v>6</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H83" s="7">
         <v>6</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1">
-      <c r="A84" s="92"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="71"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="64"/>
       <c r="F84" s="7">
         <v>7</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H84" s="7">
         <v>7</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="92"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="95"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="75"/>
       <c r="E85" s="65"/>
       <c r="F85" s="7">
         <v>8</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H85" s="7">
         <v>8</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>10</v>
@@ -4149,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>9</v>
@@ -4158,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F86" s="7">
         <v>1</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J86" s="20" t="s">
         <v>10</v>
@@ -4186,13 +4180,13 @@
         <v>2</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="J87" s="20" t="s">
         <v>10</v>
@@ -4208,13 +4202,13 @@
         <v>3</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="H88" s="7">
         <v>3</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="J88" s="20" t="s">
         <v>10</v>
@@ -4234,27 +4228,27 @@
         <v>8</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F89" s="7">
         <v>1</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A90" s="82"/>
-      <c r="B90" s="82"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
       <c r="C90" s="56"/>
       <c r="D90" s="54"/>
       <c r="E90" s="57"/>
@@ -4262,13 +4256,13 @@
         <v>2</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J90" s="20" t="s">
         <v>10</v>
@@ -4279,7 +4273,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>9</v>
@@ -4288,27 +4282,27 @@
         <v>8</v>
       </c>
       <c r="E91" s="66" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F91" s="7">
         <v>1</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J91" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
-      <c r="A92" s="82"/>
-      <c r="B92" s="82"/>
+      <c r="A92" s="76"/>
+      <c r="B92" s="76"/>
       <c r="C92" s="56"/>
       <c r="D92" s="54"/>
       <c r="E92" s="67"/>
@@ -4316,13 +4310,13 @@
         <v>2</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H92" s="7">
         <v>2</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J92" s="20" t="s">
         <v>10</v>
@@ -4333,7 +4327,7 @@
         <v>19</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C93" s="29" t="s">
         <v>9</v>
@@ -4342,19 +4336,19 @@
         <v>7</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F93" s="19">
         <v>1</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J93" s="20" t="s">
         <v>10</v>
@@ -4370,13 +4364,13 @@
         <v>2</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J94" s="20" t="s">
         <v>10</v>
@@ -4392,13 +4386,13 @@
         <v>3</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H95" s="7">
         <v>3</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J95" s="20" t="s">
         <v>10</v>
@@ -4414,13 +4408,13 @@
         <v>4</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H96" s="7">
         <v>4</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J96" s="20" t="s">
         <v>10</v>
@@ -4436,13 +4430,13 @@
         <v>5</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H97" s="7">
         <v>5</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J97" s="20" t="s">
         <v>10</v>
@@ -4458,13 +4452,13 @@
         <v>6</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H98" s="7">
         <v>6</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J98" s="20" t="s">
         <v>10</v>
@@ -4480,13 +4474,13 @@
         <v>7</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="H99" s="7">
         <v>7</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J99" s="20" t="s">
         <v>10</v>
@@ -4502,13 +4496,13 @@
         <v>8</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H100" s="7">
         <v>8</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>10</v>
@@ -4524,13 +4518,13 @@
         <v>9</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H101" s="7">
         <v>9</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J101" s="20" t="s">
         <v>10</v>
@@ -4546,13 +4540,13 @@
         <v>10</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H102" s="7">
         <v>10</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J102" s="20" t="s">
         <v>10</v>
@@ -4568,13 +4562,13 @@
         <v>11</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H103" s="7">
         <v>11</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J103" s="20" t="s">
         <v>10</v>
@@ -4585,7 +4579,7 @@
         <v>20</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>9</v>
@@ -4594,19 +4588,19 @@
         <v>7</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F104" s="7">
         <v>1</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J104" s="20" t="s">
         <v>10</v>
@@ -4622,13 +4616,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H105" s="7">
         <v>2</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J105" s="20" t="s">
         <v>10</v>
@@ -4644,13 +4638,13 @@
         <v>3</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H106" s="7">
         <v>3</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="J106" s="20" t="s">
         <v>10</v>
@@ -4661,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>9</v>
@@ -4670,19 +4664,19 @@
         <v>7</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H107" s="7">
         <v>1</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J107" s="20" t="s">
         <v>10</v>
@@ -4698,13 +4692,13 @@
         <v>2</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H108" s="7">
         <v>2</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J108" s="20" t="s">
         <v>10</v>
@@ -4720,13 +4714,13 @@
         <v>3</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H109" s="7">
         <v>3</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J109" s="20" t="s">
         <v>10</v>
@@ -4742,13 +4736,13 @@
         <v>4</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="H110" s="7">
         <v>4</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J110" s="20" t="s">
         <v>10</v>
@@ -4759,7 +4753,7 @@
         <v>22</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C111" s="29" t="s">
         <v>9</v>
@@ -4768,19 +4762,19 @@
         <v>8</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H111" s="7">
         <v>1</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J111" s="20" t="s">
         <v>10</v>
@@ -4796,13 +4790,13 @@
         <v>2</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H112" s="7">
         <v>2</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J112" s="20" t="s">
         <v>10</v>
@@ -4818,13 +4812,13 @@
         <v>3</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H113" s="7">
         <v>3</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J113" s="20" t="s">
         <v>10</v>
@@ -4840,13 +4834,13 @@
         <v>4</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H114" s="7">
         <v>4</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J114" s="20" t="s">
         <v>10</v>
@@ -4862,13 +4856,13 @@
         <v>5</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H115" s="7">
         <v>5</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J115" s="20" t="s">
         <v>10</v>
@@ -4879,7 +4873,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C116" s="29" t="s">
         <v>9</v>
@@ -4888,19 +4882,19 @@
         <v>8</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H116" s="7">
         <v>1</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J116" s="20" t="s">
         <v>10</v>
@@ -4916,13 +4910,13 @@
         <v>2</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H117" s="7">
         <v>2</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J117" s="20" t="s">
         <v>10</v>
@@ -4938,13 +4932,13 @@
         <v>3</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H118" s="7">
         <v>3</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J118" s="20" t="s">
         <v>10</v>
@@ -4960,13 +4954,13 @@
         <v>4</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H119" s="7">
         <v>4</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J119" s="20" t="s">
         <v>10</v>
@@ -4982,13 +4976,13 @@
         <v>5</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="H120" s="7">
         <v>5</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J120" s="20" t="s">
         <v>10</v>
@@ -4999,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C121" s="29" t="s">
         <v>9</v>
@@ -5008,19 +5002,19 @@
         <v>8</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F121" s="7">
         <v>1</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H121" s="7">
         <v>1</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J121" s="20" t="s">
         <v>10</v>
@@ -5036,13 +5030,13 @@
         <v>2</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H122" s="7">
         <v>2</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J122" s="20" t="s">
         <v>10</v>
@@ -5058,13 +5052,13 @@
         <v>3</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H123" s="7">
         <v>3</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J123" s="20" t="s">
         <v>10</v>
@@ -5080,13 +5074,13 @@
         <v>4</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H124" s="7">
         <v>4</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J124" s="20" t="s">
         <v>10</v>
@@ -5102,13 +5096,13 @@
         <v>5</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H125" s="7">
         <v>5</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J125" s="20" t="s">
         <v>10</v>
@@ -5119,7 +5113,7 @@
         <v>25</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C126" s="29" t="s">
         <v>9</v>
@@ -5128,19 +5122,19 @@
         <v>8</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F126" s="7">
         <v>1</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H126" s="7">
         <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J126" s="20" t="s">
         <v>10</v>
@@ -5156,13 +5150,13 @@
         <v>2</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H127" s="7">
         <v>2</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J127" s="20" t="s">
         <v>10</v>
@@ -5178,13 +5172,13 @@
         <v>3</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H128" s="7">
         <v>3</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J128" s="20" t="s">
         <v>10</v>
@@ -5200,13 +5194,13 @@
         <v>4</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H129" s="7">
         <v>4</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J129" s="20" t="s">
         <v>10</v>
@@ -5222,13 +5216,13 @@
         <v>5</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H130" s="7">
         <v>5</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J130" s="20" t="s">
         <v>10</v>
@@ -5244,13 +5238,13 @@
         <v>6</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H131" s="7">
         <v>6</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J131" s="20" t="s">
         <v>10</v>
@@ -5266,13 +5260,13 @@
         <v>7</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H132" s="7">
         <v>7</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J132" s="20" t="s">
         <v>10</v>
@@ -5283,7 +5277,7 @@
         <v>26</v>
       </c>
       <c r="B133" s="50" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="C133" s="29" t="s">
         <v>9</v>
@@ -5292,19 +5286,19 @@
         <v>8</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F133" s="7">
         <v>1</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H133" s="7">
         <v>1</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J133" s="20" t="s">
         <v>10</v>
@@ -5320,13 +5314,13 @@
         <v>2</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H134" s="7">
         <v>2</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J134" s="20" t="s">
         <v>10</v>
@@ -5342,13 +5336,13 @@
         <v>3</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H135" s="7">
         <v>3</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J135" s="20" t="s">
         <v>10</v>
@@ -5364,13 +5358,13 @@
         <v>4</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H136" s="7">
         <v>4</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J136" s="20" t="s">
         <v>10</v>
@@ -5386,13 +5380,13 @@
         <v>5</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H137" s="7">
         <v>5</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J137" s="20" t="s">
         <v>10</v>
@@ -5408,13 +5402,13 @@
         <v>6</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H138" s="7">
         <v>6</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J138" s="20" t="s">
         <v>10</v>
@@ -5430,13 +5424,13 @@
         <v>7</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H139" s="7">
         <v>7</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J139" s="20" t="s">
         <v>10</v>
@@ -5452,13 +5446,13 @@
         <v>8</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H140" s="7">
         <v>8</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J140" s="20" t="s">
         <v>10</v>
@@ -5474,13 +5468,13 @@
         <v>9</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H141" s="7">
         <v>9</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J141" s="20" t="s">
         <v>10</v>
@@ -5496,13 +5490,13 @@
         <v>10</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H142" s="7">
         <v>10</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J142" s="20" t="s">
         <v>10</v>
@@ -5518,13 +5512,13 @@
         <v>11</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H143" s="7">
         <v>11</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J143" s="20" t="s">
         <v>10</v>
@@ -5535,7 +5529,7 @@
         <v>27</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="C144" s="29" t="s">
         <v>9</v>
@@ -5544,19 +5538,19 @@
         <v>8</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H144" s="7">
         <v>1</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J144" s="20" t="s">
         <v>10</v>
@@ -5572,13 +5566,13 @@
         <v>2</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H145" s="7">
         <v>2</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J145" s="20" t="s">
         <v>10</v>
@@ -5594,13 +5588,13 @@
         <v>3</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H146" s="7">
         <v>3</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J146" s="20" t="s">
         <v>10</v>
@@ -5616,13 +5610,13 @@
         <v>4</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H147" s="7">
         <v>4</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J147" s="20" t="s">
         <v>10</v>
@@ -5638,13 +5632,13 @@
         <v>5</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H148" s="7">
         <v>5</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J148" s="20" t="s">
         <v>10</v>
@@ -5660,13 +5654,13 @@
         <v>6</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H149" s="7">
         <v>6</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J149" s="20" t="s">
         <v>10</v>
@@ -5682,13 +5676,13 @@
         <v>7</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H150" s="7">
         <v>7</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J150" s="20" t="s">
         <v>10</v>
@@ -5704,13 +5698,13 @@
         <v>8</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H151" s="7">
         <v>8</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J151" s="20" t="s">
         <v>10</v>
@@ -5726,13 +5720,13 @@
         <v>9</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H152" s="7">
         <v>9</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J152" s="20" t="s">
         <v>10</v>
@@ -5748,13 +5742,13 @@
         <v>10</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H153" s="7">
         <v>10</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J153" s="20" t="s">
         <v>10</v>
@@ -5770,13 +5764,13 @@
         <v>11</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H154" s="7">
         <v>11</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>13</v>
@@ -5787,7 +5781,7 @@
         <v>28</v>
       </c>
       <c r="B155" s="50" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="C155" s="29" t="s">
         <v>9</v>
@@ -5796,19 +5790,19 @@
         <v>8</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F155" s="7">
         <v>1</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H155" s="7">
         <v>1</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J155" s="20" t="s">
         <v>10</v>
@@ -5824,13 +5818,13 @@
         <v>2</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H156" s="7">
         <v>2</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J156" s="20" t="s">
         <v>10</v>
@@ -5846,13 +5840,13 @@
         <v>3</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H157" s="7">
         <v>3</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J157" s="20" t="s">
         <v>10</v>
@@ -5868,13 +5862,13 @@
         <v>4</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H158" s="7">
         <v>4</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J158" s="20" t="s">
         <v>10</v>
@@ -5890,13 +5884,13 @@
         <v>5</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H159" s="7">
         <v>5</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J159" s="20" t="s">
         <v>10</v>
@@ -5912,13 +5906,13 @@
         <v>6</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H160" s="7">
         <v>6</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J160" s="20" t="s">
         <v>10</v>
@@ -5934,13 +5928,13 @@
         <v>7</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H161" s="7">
         <v>7</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J161" s="20" t="s">
         <v>10</v>
@@ -5956,13 +5950,13 @@
         <v>8</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H162" s="7">
         <v>8</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J162" s="20" t="s">
         <v>10</v>
@@ -5978,13 +5972,13 @@
         <v>9</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H163" s="7">
         <v>9</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J163" s="20" t="s">
         <v>10</v>
@@ -6000,13 +5994,13 @@
         <v>10</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H164" s="7">
         <v>10</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J164" s="20" t="s">
         <v>10</v>
@@ -6022,13 +6016,13 @@
         <v>11</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H165" s="7">
         <v>11</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J165" s="20" t="s">
         <v>10</v>
@@ -6048,19 +6042,19 @@
         <v>8</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F166" s="7">
         <v>1</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H166" s="7">
         <v>1</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J166" s="20" t="s">
         <v>10</v>
@@ -6076,13 +6070,13 @@
         <v>2</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H167" s="7">
         <v>2</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J167" s="20" t="s">
         <v>10</v>
@@ -6098,13 +6092,13 @@
         <v>3</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H168" s="7">
         <v>3</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J168" s="20" t="s">
         <v>10</v>
@@ -6120,13 +6114,13 @@
         <v>4</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H169" s="7">
         <v>4</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J169" s="20" t="s">
         <v>10</v>
@@ -6142,13 +6136,13 @@
         <v>5</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H170" s="7">
         <v>5</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J170" s="20" t="s">
         <v>10</v>
@@ -6164,13 +6158,13 @@
         <v>6</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H171" s="7">
         <v>6</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J171" s="20" t="s">
         <v>10</v>
@@ -6186,13 +6180,13 @@
         <v>7</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H172" s="7">
         <v>7</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J172" s="20" t="s">
         <v>10</v>
@@ -6208,13 +6202,13 @@
         <v>8</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H173" s="7">
         <v>8</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J173" s="3" t="s">
         <v>13</v>
@@ -6234,19 +6228,19 @@
         <v>8</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F174" s="7">
         <v>1</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H174" s="7">
         <v>1</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J174" s="20" t="s">
         <v>10</v>
@@ -6262,13 +6256,13 @@
         <v>2</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H175" s="7">
         <v>2</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J175" s="20" t="s">
         <v>10</v>
@@ -6284,13 +6278,13 @@
         <v>3</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H176" s="7">
         <v>3</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J176" s="20" t="s">
         <v>10</v>
@@ -6306,13 +6300,13 @@
         <v>4</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H177" s="7">
         <v>4</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J177" s="20" t="s">
         <v>10</v>
@@ -6328,13 +6322,13 @@
         <v>5</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H178" s="7">
         <v>5</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J178" s="20" t="s">
         <v>10</v>
@@ -6350,13 +6344,13 @@
         <v>6</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H179" s="7">
         <v>6</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J179" s="20" t="s">
         <v>10</v>
@@ -6372,13 +6366,13 @@
         <v>7</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H180" s="7">
         <v>7</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J180" s="20" t="s">
         <v>10</v>
@@ -6394,13 +6388,13 @@
         <v>8</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H181" s="7">
         <v>8</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>13</v>
@@ -6411,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="B182" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C182" s="29" t="s">
         <v>9</v>
@@ -6420,19 +6414,19 @@
         <v>24</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H182" s="7">
         <v>1</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J182" s="20" t="s">
         <v>10</v>
@@ -6448,13 +6442,13 @@
         <v>2</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H183" s="7">
         <v>2</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J183" s="20" t="s">
         <v>10</v>
@@ -6470,13 +6464,13 @@
         <v>3</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H184" s="7">
         <v>3</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J184" s="20" t="s">
         <v>10</v>
@@ -6492,13 +6486,13 @@
         <v>4</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H185" s="7">
         <v>4</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J185" s="20" t="s">
         <v>10</v>
@@ -6514,13 +6508,13 @@
         <v>5</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H186" s="7">
         <v>5</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J186" s="20" t="s">
         <v>10</v>
@@ -6536,13 +6530,13 @@
         <v>6</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="H187" s="7">
         <v>6</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J187" s="20" t="s">
         <v>10</v>
@@ -6558,13 +6552,13 @@
         <v>7</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H188" s="7">
         <v>7</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J188" s="20" t="s">
         <v>10</v>
@@ -6580,13 +6574,13 @@
         <v>8</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H189" s="7">
         <v>8</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J189" s="20" t="s">
         <v>10</v>
@@ -6602,13 +6596,13 @@
         <v>9</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="H190" s="7">
         <v>9</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J190" s="20" t="s">
         <v>10</v>
@@ -6624,13 +6618,13 @@
         <v>10</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H191" s="7">
         <v>10</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J191" s="20" t="s">
         <v>10</v>
@@ -6646,13 +6640,13 @@
         <v>11</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H192" s="7">
         <v>12</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J192" s="20" t="s">
         <v>10</v>
@@ -6663,7 +6657,7 @@
         <v>32</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C193" s="29" t="s">
         <v>9</v>
@@ -6672,19 +6666,19 @@
         <v>7</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F193" s="7">
         <v>1</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H193" s="7">
         <v>1</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J193" s="20" t="s">
         <v>10</v>
@@ -6700,13 +6694,13 @@
         <v>2</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H194" s="7">
         <v>2</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J194" s="20" t="s">
         <v>10</v>
@@ -6722,13 +6716,13 @@
         <v>3</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H195" s="7">
         <v>3</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J195" s="20" t="s">
         <v>10</v>
@@ -6744,13 +6738,13 @@
         <v>4</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H196" s="7">
         <v>4</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J196" s="20" t="s">
         <v>10</v>
@@ -6766,13 +6760,13 @@
         <v>5</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="H197" s="7">
         <v>5</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J197" s="20" t="s">
         <v>10</v>
@@ -6788,13 +6782,13 @@
         <v>6</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H198" s="7">
         <v>6</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J198" s="20" t="s">
         <v>10</v>
@@ -6810,13 +6804,13 @@
         <v>7</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H199" s="7">
         <v>7</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J199" s="20" t="s">
         <v>10</v>
@@ -6832,13 +6826,13 @@
         <v>8</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H200" s="7">
         <v>8</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>13</v>
@@ -6854,13 +6848,13 @@
         <v>9</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="H201" s="7">
         <v>9</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J201" s="3" t="s">
         <v>13</v>
@@ -6876,13 +6870,13 @@
         <v>10</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H202" s="7">
         <v>10</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J202" s="20" t="s">
         <v>10</v>
@@ -6898,13 +6892,13 @@
         <v>11</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H203" s="7">
         <v>11</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J203" s="20" t="s">
         <v>10</v>
@@ -6920,13 +6914,13 @@
         <v>12</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H204" s="7">
         <v>12</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J204" s="20" t="s">
         <v>10</v>
@@ -6942,13 +6936,13 @@
         <v>13</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H205" s="7">
         <v>13</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J205" s="20" t="s">
         <v>10</v>
@@ -6959,7 +6953,7 @@
         <v>33</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C206" s="29" t="s">
         <v>9</v>
@@ -6968,19 +6962,19 @@
         <v>7</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H206" s="7">
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J206" s="20" t="s">
         <v>10</v>
@@ -6996,13 +6990,13 @@
         <v>2</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H207" s="7">
         <v>2</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J207" s="20" t="s">
         <v>10</v>
@@ -7018,13 +7012,13 @@
         <v>3</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H208" s="7">
         <v>3</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J208" s="20" t="s">
         <v>10</v>
@@ -7040,13 +7034,13 @@
         <v>4</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H209" s="7">
         <v>4</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="J209" s="20" t="s">
         <v>10</v>
@@ -7057,7 +7051,7 @@
         <v>34</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C210" s="29" t="s">
         <v>9</v>
@@ -7066,19 +7060,19 @@
         <v>8</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F210" s="7">
         <v>1</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H210" s="7">
         <v>1</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J210" s="20" t="s">
         <v>10</v>
@@ -7094,13 +7088,13 @@
         <v>2</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H211" s="7">
         <v>2</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J211" s="20" t="s">
         <v>10</v>
@@ -7116,13 +7110,13 @@
         <v>3</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H212" s="7">
         <v>3</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J212" s="20" t="s">
         <v>10</v>
@@ -7138,13 +7132,13 @@
         <v>4</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H213" s="7">
         <v>4</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="J213" s="20" t="s">
         <v>10</v>
@@ -7160,13 +7154,13 @@
         <v>5</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="H214" s="7">
         <v>5</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J214" s="20" t="s">
         <v>10</v>
@@ -7177,7 +7171,7 @@
         <v>35</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="C215" s="29" t="s">
         <v>9</v>
@@ -7186,19 +7180,19 @@
         <v>8</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H215" s="7">
         <v>1</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J215" s="20" t="s">
         <v>10</v>
@@ -7214,13 +7208,13 @@
         <v>2</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H216" s="7">
         <v>2</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J216" s="20" t="s">
         <v>10</v>
@@ -7236,13 +7230,13 @@
         <v>3</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H217" s="7">
         <v>3</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J217" s="20" t="s">
         <v>10</v>
@@ -7258,13 +7252,13 @@
         <v>4</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H218" s="7">
         <v>4</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J218" s="20" t="s">
         <v>10</v>
@@ -7280,13 +7274,13 @@
         <v>5</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H219" s="7">
         <v>5</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J219" s="20" t="s">
         <v>10</v>
@@ -7302,13 +7296,13 @@
         <v>6</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H220" s="7">
         <v>6</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J220" s="20" t="s">
         <v>10</v>
@@ -7319,7 +7313,7 @@
         <v>36</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C221" s="29" t="s">
         <v>9</v>
@@ -7328,19 +7322,19 @@
         <v>8</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F221" s="7">
         <v>1</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H221" s="7">
         <v>1</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J221" s="20" t="s">
         <v>10</v>
@@ -7356,13 +7350,13 @@
         <v>2</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H222" s="7">
         <v>2</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J222" s="20" t="s">
         <v>10</v>
@@ -7378,13 +7372,13 @@
         <v>3</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H223" s="7">
         <v>3</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J223" s="20" t="s">
         <v>10</v>
@@ -7400,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H224" s="7">
         <v>4</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J224" s="20" t="s">
         <v>10</v>
@@ -7422,13 +7416,13 @@
         <v>5</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H225" s="7">
         <v>5</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J225" s="20" t="s">
         <v>10</v>
@@ -7444,13 +7438,13 @@
         <v>6</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="H226" s="7">
         <v>6</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J226" s="20" t="s">
         <v>10</v>
@@ -7461,7 +7455,7 @@
         <v>37</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C227" s="29" t="s">
         <v>9</v>
@@ -7470,19 +7464,19 @@
         <v>8</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F227" s="7">
         <v>1</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H227" s="7">
         <v>7</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J227" s="20" t="s">
         <v>10</v>
@@ -7498,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H228" s="7">
         <v>2</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J228" s="20" t="s">
         <v>10</v>
@@ -7520,13 +7514,13 @@
         <v>3</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H229" s="7">
         <v>3</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J229" s="20" t="s">
         <v>10</v>
@@ -7542,13 +7536,13 @@
         <v>4</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H230" s="7">
         <v>4</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J230" s="20" t="s">
         <v>10</v>
@@ -7564,13 +7558,13 @@
         <v>5</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H231" s="7">
         <v>5</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J231" s="20" t="s">
         <v>10</v>
@@ -7586,13 +7580,13 @@
         <v>6</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H232" s="7">
         <v>6</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J232" s="20" t="s">
         <v>10</v>
@@ -7603,7 +7597,7 @@
         <v>38</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="C233" s="29" t="s">
         <v>9</v>
@@ -7612,19 +7606,19 @@
         <v>8</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F233" s="7">
         <v>1</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H233" s="7">
         <v>1</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J233" s="20" t="s">
         <v>10</v>
@@ -7640,13 +7634,13 @@
         <v>2</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H234" s="7">
         <v>2</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J234" s="20" t="s">
         <v>10</v>
@@ -7662,13 +7656,13 @@
         <v>3</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H235" s="7">
         <v>3</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J235" s="20" t="s">
         <v>10</v>
@@ -7684,13 +7678,13 @@
         <v>4</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H236" s="7">
         <v>4</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J236" s="20" t="s">
         <v>10</v>
@@ -7706,13 +7700,13 @@
         <v>5</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H237" s="7">
         <v>5</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J237" s="20" t="s">
         <v>10</v>
@@ -7728,13 +7722,13 @@
         <v>6</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H238" s="7">
         <v>6</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J238" s="20" t="s">
         <v>10</v>
@@ -7750,13 +7744,13 @@
         <v>7</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H239" s="7">
         <v>7</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J239" s="20" t="s">
         <v>10</v>
@@ -7772,13 +7766,13 @@
         <v>8</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H240" s="7">
         <v>8</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J240" s="20" t="s">
         <v>10</v>
@@ -7789,7 +7783,7 @@
         <v>39</v>
       </c>
       <c r="B241" s="50" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="C241" s="29" t="s">
         <v>9</v>
@@ -7798,19 +7792,19 @@
         <v>8</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F241" s="7">
         <v>1</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H241" s="7">
         <v>1</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J241" s="20" t="s">
         <v>10</v>
@@ -7826,13 +7820,13 @@
         <v>2</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H242" s="7">
         <v>2</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J242" s="20" t="s">
         <v>10</v>
@@ -7848,13 +7842,13 @@
         <v>3</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H243" s="7">
         <v>3</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J243" s="20" t="s">
         <v>10</v>
@@ -7870,13 +7864,13 @@
         <v>4</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H244" s="7">
         <v>4</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J244" s="20" t="s">
         <v>10</v>
@@ -7892,13 +7886,13 @@
         <v>5</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H245" s="7">
         <v>5</v>
       </c>
       <c r="I245" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J245" s="20" t="s">
         <v>10</v>
@@ -7914,13 +7908,13 @@
         <v>6</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H246" s="7">
         <v>6</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J246" s="20" t="s">
         <v>10</v>
@@ -7936,13 +7930,13 @@
         <v>7</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H247" s="7">
         <v>7</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J247" s="20" t="s">
         <v>10</v>
@@ -7958,13 +7952,13 @@
         <v>8</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H248" s="7">
         <v>8</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J248" s="20" t="s">
         <v>10</v>
@@ -7980,13 +7974,13 @@
         <v>9</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H249" s="7">
         <v>9</v>
       </c>
       <c r="I249" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J249" s="20" t="s">
         <v>10</v>
@@ -8002,13 +7996,13 @@
         <v>10</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H250" s="7">
         <v>10</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J250" s="20" t="s">
         <v>10</v>
@@ -8024,13 +8018,13 @@
         <v>11</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H251" s="7">
         <v>11</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J251" s="20" t="s">
         <v>10</v>
@@ -8046,13 +8040,13 @@
         <v>12</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H252" s="7">
         <v>12</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J252" s="20" t="s">
         <v>10</v>
@@ -8063,7 +8057,7 @@
         <v>40</v>
       </c>
       <c r="B253" s="50" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C253" s="29" t="s">
         <v>9</v>
@@ -8072,19 +8066,19 @@
         <v>8</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F253" s="7">
         <v>1</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H253" s="7">
         <v>1</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J253" s="20" t="s">
         <v>10</v>
@@ -8100,13 +8094,13 @@
         <v>2</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H254" s="7">
         <v>2</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J254" s="20" t="s">
         <v>10</v>
@@ -8122,13 +8116,13 @@
         <v>3</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H255" s="7">
         <v>3</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J255" s="20" t="s">
         <v>10</v>
@@ -8144,13 +8138,13 @@
         <v>4</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H256" s="7">
         <v>4</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J256" s="20" t="s">
         <v>10</v>
@@ -8166,13 +8160,13 @@
         <v>5</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H257" s="7">
         <v>5</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J257" s="20" t="s">
         <v>10</v>
@@ -8188,13 +8182,13 @@
         <v>6</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H258" s="7">
         <v>6</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J258" s="20" t="s">
         <v>10</v>
@@ -8210,13 +8204,13 @@
         <v>7</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H259" s="7">
         <v>7</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J259" s="20" t="s">
         <v>10</v>
@@ -8232,13 +8226,13 @@
         <v>8</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H260" s="7">
         <v>8</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J260" s="20" t="s">
         <v>10</v>
@@ -8254,13 +8248,13 @@
         <v>9</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H261" s="7">
         <v>9</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J261" s="20" t="s">
         <v>10</v>
@@ -8276,13 +8270,13 @@
         <v>10</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H262" s="7">
         <v>10</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J262" s="20" t="s">
         <v>10</v>
@@ -8298,13 +8292,13 @@
         <v>11</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H263" s="7">
         <v>11</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J263" s="20" t="s">
         <v>10</v>
@@ -8320,13 +8314,13 @@
         <v>12</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H264" s="7">
         <v>12</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J264" s="3" t="s">
         <v>13</v>
@@ -8337,7 +8331,7 @@
         <v>41</v>
       </c>
       <c r="B265" s="50" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="C265" s="29" t="s">
         <v>9</v>
@@ -8346,19 +8340,19 @@
         <v>8</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F265" s="7">
         <v>1</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H265" s="7">
         <v>1</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J265" s="20" t="s">
         <v>10</v>
@@ -8374,13 +8368,13 @@
         <v>2</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H266" s="7">
         <v>2</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J266" s="20" t="s">
         <v>10</v>
@@ -8396,13 +8390,13 @@
         <v>3</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H267" s="7">
         <v>3</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J267" s="20" t="s">
         <v>10</v>
@@ -8418,13 +8412,13 @@
         <v>4</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H268" s="7">
         <v>4</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J268" s="20" t="s">
         <v>10</v>
@@ -8440,13 +8434,13 @@
         <v>5</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H269" s="7">
         <v>5</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J269" s="20" t="s">
         <v>10</v>
@@ -8462,13 +8456,13 @@
         <v>6</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H270" s="7">
         <v>6</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J270" s="20" t="s">
         <v>10</v>
@@ -8484,13 +8478,13 @@
         <v>7</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H271" s="7">
         <v>7</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J271" s="20" t="s">
         <v>10</v>
@@ -8506,13 +8500,13 @@
         <v>8</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H272" s="7">
         <v>8</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J272" s="20" t="s">
         <v>10</v>
@@ -8528,13 +8522,13 @@
         <v>9</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H273" s="7">
         <v>9</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J273" s="20" t="s">
         <v>10</v>
@@ -8550,13 +8544,13 @@
         <v>10</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H274" s="7">
         <v>10</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J274" s="20" t="s">
         <v>10</v>
@@ -8572,13 +8566,13 @@
         <v>11</v>
       </c>
       <c r="G275" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H275" s="7">
         <v>11</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J275" s="20" t="s">
         <v>10</v>
@@ -8594,13 +8588,13 @@
         <v>12</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H276" s="7">
         <v>12</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J276" s="20" t="s">
         <v>10</v>
@@ -8611,7 +8605,7 @@
         <v>42</v>
       </c>
       <c r="B277" s="50" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C277" s="29" t="s">
         <v>9</v>
@@ -8620,19 +8614,19 @@
         <v>8</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F277" s="7">
         <v>1</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H277" s="7">
         <v>1</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J277" s="20" t="s">
         <v>10</v>
@@ -8648,13 +8642,13 @@
         <v>2</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H278" s="7">
         <v>2</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J278" s="20" t="s">
         <v>10</v>
@@ -8670,13 +8664,13 @@
         <v>3</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H279" s="7">
         <v>3</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J279" s="20" t="s">
         <v>10</v>
@@ -8692,13 +8686,13 @@
         <v>4</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H280" s="7">
         <v>4</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J280" s="20" t="s">
         <v>10</v>
@@ -8714,13 +8708,13 @@
         <v>5</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H281" s="7">
         <v>5</v>
       </c>
       <c r="I281" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J281" s="20" t="s">
         <v>10</v>
@@ -8736,13 +8730,13 @@
         <v>6</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H282" s="7">
         <v>6</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J282" s="20" t="s">
         <v>10</v>
@@ -8758,13 +8752,13 @@
         <v>7</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H283" s="7">
         <v>7</v>
       </c>
       <c r="I283" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J283" s="20" t="s">
         <v>10</v>
@@ -8780,13 +8774,13 @@
         <v>8</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H284" s="7">
         <v>8</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J284" s="20" t="s">
         <v>10</v>
@@ -8802,13 +8796,13 @@
         <v>9</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H285" s="7">
         <v>9</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J285" s="3" t="s">
         <v>13</v>
@@ -8819,7 +8813,7 @@
         <v>43</v>
       </c>
       <c r="B286" s="50" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="C286" s="29" t="s">
         <v>9</v>
@@ -8828,19 +8822,19 @@
         <v>8</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F286" s="7">
         <v>1</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H286" s="7">
         <v>1</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J286" s="20" t="s">
         <v>10</v>
@@ -8856,13 +8850,13 @@
         <v>2</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H287" s="7">
         <v>2</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J287" s="20" t="s">
         <v>10</v>
@@ -8878,13 +8872,13 @@
         <v>3</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H288" s="7">
         <v>3</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J288" s="20" t="s">
         <v>10</v>
@@ -8900,13 +8894,13 @@
         <v>4</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H289" s="7">
         <v>4</v>
       </c>
       <c r="I289" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J289" s="20" t="s">
         <v>10</v>
@@ -8922,13 +8916,13 @@
         <v>5</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H290" s="7">
         <v>5</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J290" s="20" t="s">
         <v>10</v>
@@ -8944,13 +8938,13 @@
         <v>6</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H291" s="7">
         <v>6</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J291" s="20" t="s">
         <v>10</v>
@@ -8966,13 +8960,13 @@
         <v>7</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H292" s="7">
         <v>7</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J292" s="20" t="s">
         <v>10</v>
@@ -8988,13 +8982,13 @@
         <v>8</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H293" s="7">
         <v>8</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J293" s="20" t="s">
         <v>10</v>
@@ -9010,13 +9004,13 @@
         <v>9</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H294" s="7">
         <v>9</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J294" s="3" t="s">
         <v>13</v>
@@ -9036,19 +9030,19 @@
         <v>24</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F295" s="7">
         <v>1</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H295" s="7">
         <v>1</v>
       </c>
       <c r="I295" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J295" s="20" t="s">
         <v>10</v>
@@ -9064,13 +9058,13 @@
         <v>2</v>
       </c>
       <c r="G296" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H296" s="7">
         <v>2</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J296" s="20" t="s">
         <v>10</v>
@@ -9086,13 +9080,13 @@
         <v>3</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H297" s="7">
         <v>3</v>
       </c>
       <c r="I297" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J297" s="20" t="s">
         <v>10</v>
@@ -9108,13 +9102,13 @@
         <v>4</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H298" s="7">
         <v>4</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J298" s="20" t="s">
         <v>10</v>
@@ -9130,13 +9124,13 @@
         <v>5</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H299" s="7">
         <v>4</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J299" s="20" t="s">
         <v>10</v>
@@ -9152,13 +9146,13 @@
         <v>6</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H300" s="7">
         <v>5</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J300" s="20" t="s">
         <v>10</v>
@@ -9174,13 +9168,13 @@
         <v>7</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="H301" s="7">
         <v>6</v>
       </c>
       <c r="I301" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J301" s="20" t="s">
         <v>10</v>
@@ -9196,13 +9190,13 @@
         <v>8</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H302" s="7">
         <v>7</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J302" s="20" t="s">
         <v>10</v>
@@ -9218,13 +9212,13 @@
         <v>9</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H303" s="7">
         <v>8</v>
       </c>
       <c r="I303" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J303" s="20" t="s">
         <v>10</v>
@@ -9240,13 +9234,13 @@
         <v>10</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="H304" s="7">
         <v>9</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J304" s="20" t="s">
         <v>10</v>
@@ -9262,13 +9256,13 @@
         <v>11</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H305" s="7">
         <v>10</v>
       </c>
       <c r="I305" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J305" s="20" t="s">
         <v>10</v>
@@ -9284,13 +9278,13 @@
         <v>12</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H306" s="7">
         <v>12</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J306" s="20" t="s">
         <v>10</v>
@@ -9301,7 +9295,7 @@
         <v>45</v>
       </c>
       <c r="B307" s="50" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="C307" s="29" t="s">
         <v>9</v>
@@ -9310,19 +9304,19 @@
         <v>24</v>
       </c>
       <c r="E307" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F307" s="7">
         <v>1</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H307" s="7">
         <v>1</v>
       </c>
       <c r="I307" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J307" s="20" t="s">
         <v>10</v>
@@ -9338,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H308" s="7">
         <v>2</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J308" s="20" t="s">
         <v>10</v>
@@ -9360,13 +9354,13 @@
         <v>3</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H309" s="7">
         <v>3</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J309" s="20" t="s">
         <v>10</v>
@@ -9382,13 +9376,13 @@
         <v>4</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H310" s="7">
         <v>4</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J310" s="20" t="s">
         <v>10</v>
@@ -9404,13 +9398,13 @@
         <v>5</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H311" s="7">
         <v>5</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J311" s="20" t="s">
         <v>10</v>
@@ -9426,13 +9420,13 @@
         <v>6</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H312" s="7">
         <v>6</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J312" s="20" t="s">
         <v>10</v>
@@ -9448,13 +9442,13 @@
         <v>7</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H313" s="7">
         <v>7</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J313" s="20" t="s">
         <v>10</v>
@@ -9465,7 +9459,7 @@
         <v>46</v>
       </c>
       <c r="B314" s="50" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
       <c r="C314" s="29" t="s">
         <v>9</v>
@@ -9474,19 +9468,19 @@
         <v>24</v>
       </c>
       <c r="E314" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F314" s="7">
         <v>1</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H314" s="7">
         <v>1</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J314" s="20" t="s">
         <v>10</v>
@@ -9502,13 +9496,13 @@
         <v>2</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H315" s="7">
         <v>2</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J315" s="20" t="s">
         <v>10</v>
@@ -9524,13 +9518,13 @@
         <v>3</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H316" s="7">
         <v>3</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J316" s="20" t="s">
         <v>10</v>
@@ -9546,13 +9540,13 @@
         <v>4</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H317" s="7">
         <v>4</v>
       </c>
       <c r="I317" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J317" s="20" t="s">
         <v>10</v>
@@ -9568,13 +9562,13 @@
         <v>5</v>
       </c>
       <c r="G318" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H318" s="7">
         <v>5</v>
       </c>
       <c r="I318" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J318" s="20" t="s">
         <v>10</v>
@@ -9590,13 +9584,13 @@
         <v>6</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H319" s="7">
         <v>6</v>
       </c>
       <c r="I319" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J319" s="20" t="s">
         <v>10</v>
@@ -9612,13 +9606,13 @@
         <v>7</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H320" s="7">
         <v>7</v>
       </c>
       <c r="I320" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J320" s="20" t="s">
         <v>10</v>
@@ -9638,19 +9632,19 @@
         <v>7</v>
       </c>
       <c r="E321" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F321" s="7">
         <v>1</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H321" s="7">
         <v>1</v>
       </c>
       <c r="I321" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J321" s="4" t="s">
         <v>10</v>
@@ -9666,13 +9660,13 @@
         <v>2</v>
       </c>
       <c r="G322" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H322" s="7">
         <v>2</v>
       </c>
       <c r="I322" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J322" s="20" t="s">
         <v>10</v>
@@ -9688,13 +9682,13 @@
         <v>3</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H323" s="7">
         <v>3</v>
       </c>
       <c r="I323" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J323" s="20" t="s">
         <v>10</v>
@@ -9710,13 +9704,13 @@
         <v>4</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H324" s="7">
         <v>4</v>
       </c>
       <c r="I324" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J324" s="20" t="s">
         <v>10</v>
@@ -9732,13 +9726,13 @@
         <v>5</v>
       </c>
       <c r="G325" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H325" s="7">
         <v>5</v>
       </c>
       <c r="I325" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J325" s="20" t="s">
         <v>10</v>
@@ -9754,13 +9748,13 @@
         <v>6</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H326" s="7">
         <v>6</v>
       </c>
       <c r="I326" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J326" s="20" t="s">
         <v>10</v>
@@ -9776,13 +9770,13 @@
         <v>7</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H327" s="7">
         <v>7</v>
       </c>
       <c r="I327" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J327" s="20" t="s">
         <v>10</v>
@@ -9798,13 +9792,13 @@
         <v>8</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H328" s="7">
         <v>8</v>
       </c>
       <c r="I328" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J328" s="20" t="s">
         <v>10</v>
@@ -9820,13 +9814,13 @@
         <v>9</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H329" s="7">
         <v>9</v>
       </c>
       <c r="I329" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J329" s="20" t="s">
         <v>10</v>
@@ -9842,13 +9836,13 @@
         <v>10</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H330" s="7">
         <v>10</v>
       </c>
       <c r="I330" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J330" s="20" t="s">
         <v>10</v>
@@ -9864,13 +9858,13 @@
         <v>11</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H331" s="7">
         <v>11</v>
       </c>
       <c r="I331" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J331" s="20" t="s">
         <v>10</v>
@@ -9886,13 +9880,13 @@
         <v>12</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H332" s="7">
         <v>12</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J332" s="20" t="s">
         <v>10</v>
@@ -9908,13 +9902,13 @@
         <v>13</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H333" s="7">
         <v>13</v>
       </c>
       <c r="I333" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J333" s="20" t="s">
         <v>10</v>
@@ -9925,7 +9919,7 @@
         <v>48</v>
       </c>
       <c r="B334" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C334" s="29" t="s">
         <v>9</v>
@@ -9934,19 +9928,19 @@
         <v>8</v>
       </c>
       <c r="E334" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F334" s="7">
         <v>1</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H334" s="7">
         <v>1</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J334" s="20" t="s">
         <v>10</v>
@@ -9962,13 +9956,13 @@
         <v>2</v>
       </c>
       <c r="G335" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H335" s="7">
         <v>2</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J335" s="20" t="s">
         <v>10</v>
@@ -9984,13 +9978,13 @@
         <v>3</v>
       </c>
       <c r="G336" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H336" s="7">
         <v>3</v>
       </c>
       <c r="I336" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J336" s="20" t="s">
         <v>10</v>
@@ -10006,13 +10000,13 @@
         <v>4</v>
       </c>
       <c r="G337" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H337" s="7">
         <v>4</v>
       </c>
       <c r="I337" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J337" s="20" t="s">
         <v>10</v>
@@ -10028,13 +10022,13 @@
         <v>5</v>
       </c>
       <c r="G338" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H338" s="7">
         <v>5</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J338" s="20" t="s">
         <v>10</v>
@@ -10050,13 +10044,13 @@
         <v>6</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H339" s="7">
         <v>6</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J339" s="20" t="s">
         <v>10</v>
@@ -10072,13 +10066,13 @@
         <v>7</v>
       </c>
       <c r="G340" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H340" s="7">
         <v>7</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J340" s="20" t="s">
         <v>10</v>
@@ -10089,7 +10083,7 @@
         <v>49</v>
       </c>
       <c r="B341" s="48" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C341" s="29" t="s">
         <v>9</v>
@@ -10098,19 +10092,19 @@
         <v>7</v>
       </c>
       <c r="E341" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F341" s="7">
         <v>1</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H341" s="7">
         <v>1</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J341" s="20" t="s">
         <v>10</v>
@@ -10126,13 +10120,13 @@
         <v>2</v>
       </c>
       <c r="G342" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H342" s="7">
         <v>2</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J342" s="20" t="s">
         <v>10</v>
@@ -10148,13 +10142,13 @@
         <v>3</v>
       </c>
       <c r="G343" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H343" s="7">
         <v>3</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J343" s="20" t="s">
         <v>10</v>
@@ -10170,13 +10164,13 @@
         <v>4</v>
       </c>
       <c r="G344" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H344" s="7">
         <v>4</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J344" s="20" t="s">
         <v>10</v>
@@ -10192,13 +10186,13 @@
         <v>5</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H345" s="7">
         <v>5</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J345" s="20" t="s">
         <v>10</v>
@@ -10214,13 +10208,13 @@
         <v>6</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H346" s="7">
         <v>6</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J346" s="20" t="s">
         <v>10</v>
@@ -10236,13 +10230,13 @@
         <v>7</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H347" s="7">
         <v>7</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J347" s="20" t="s">
         <v>10</v>
@@ -10258,13 +10252,13 @@
         <v>8</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H348" s="7">
         <v>8</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J348" s="20" t="s">
         <v>10</v>
@@ -10280,13 +10274,13 @@
         <v>9</v>
       </c>
       <c r="G349" s="10" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H349" s="7">
         <v>9</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J349" s="20" t="s">
         <v>10</v>
@@ -10302,13 +10296,13 @@
         <v>10</v>
       </c>
       <c r="G350" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H350" s="7">
         <v>10</v>
       </c>
       <c r="I350" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J350" s="20" t="s">
         <v>10</v>
@@ -10324,13 +10318,13 @@
         <v>11</v>
       </c>
       <c r="G351" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H351" s="7">
         <v>11</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J351" s="20" t="s">
         <v>10</v>
@@ -10346,13 +10340,13 @@
         <v>12</v>
       </c>
       <c r="G352" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H352" s="7">
         <v>12</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J352" s="20" t="s">
         <v>10</v>
@@ -10368,13 +10362,13 @@
         <v>13</v>
       </c>
       <c r="G353" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H353" s="7">
         <v>13</v>
       </c>
       <c r="I353" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J353" s="20" t="s">
         <v>10</v>
@@ -10390,13 +10384,13 @@
         <v>14</v>
       </c>
       <c r="G354" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H354" s="7">
         <v>14</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J354" s="20" t="s">
         <v>10</v>
@@ -10412,13 +10406,13 @@
         <v>15</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H355" s="7">
         <v>15</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J355" s="20" t="s">
         <v>10</v>
@@ -10438,19 +10432,19 @@
         <v>24</v>
       </c>
       <c r="E356" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F356" s="7">
         <v>1</v>
       </c>
       <c r="G356" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H356" s="7">
         <v>1</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J356" s="20" t="s">
         <v>10</v>
@@ -10466,13 +10460,13 @@
         <v>2</v>
       </c>
       <c r="G357" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H357" s="7">
         <v>2</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J357" s="20" t="s">
         <v>10</v>
@@ -10488,13 +10482,13 @@
         <v>3</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H358" s="7">
         <v>3</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J358" s="20" t="s">
         <v>10</v>
@@ -10510,13 +10504,13 @@
         <v>4</v>
       </c>
       <c r="G359" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H359" s="7">
         <v>4</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J359" s="20" t="s">
         <v>10</v>
@@ -10532,13 +10526,13 @@
         <v>5</v>
       </c>
       <c r="G360" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H360" s="7">
         <v>5</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J360" s="20" t="s">
         <v>10</v>
@@ -10554,13 +10548,13 @@
         <v>6</v>
       </c>
       <c r="G361" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H361" s="7">
         <v>6</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J361" s="20" t="s">
         <v>10</v>
@@ -10576,13 +10570,13 @@
         <v>7</v>
       </c>
       <c r="G362" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H362" s="7">
         <v>7</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J362" s="20" t="s">
         <v>10</v>
@@ -10598,13 +10592,13 @@
         <v>8</v>
       </c>
       <c r="G363" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H363" s="7">
         <v>8</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J363" s="20" t="s">
         <v>10</v>
@@ -10620,13 +10614,13 @@
         <v>9</v>
       </c>
       <c r="G364" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H364" s="7">
         <v>9</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J364" s="20" t="s">
         <v>10</v>
@@ -10642,13 +10636,13 @@
         <v>10</v>
       </c>
       <c r="G365" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H365" s="7">
         <v>10</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J365" s="20" t="s">
         <v>10</v>
@@ -10664,13 +10658,13 @@
         <v>11</v>
       </c>
       <c r="G366" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H366" s="7">
         <v>11</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J366" s="20" t="s">
         <v>10</v>
@@ -10686,13 +10680,13 @@
         <v>12</v>
       </c>
       <c r="G367" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H367" s="7">
         <v>12</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J367" s="20" t="s">
         <v>10</v>
@@ -10708,13 +10702,13 @@
         <v>13</v>
       </c>
       <c r="G368" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H368" s="7">
         <v>13</v>
       </c>
       <c r="I368" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J368" s="20" t="s">
         <v>10</v>
@@ -10730,13 +10724,13 @@
         <v>14</v>
       </c>
       <c r="G369" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H369" s="7">
         <v>14</v>
       </c>
       <c r="I369" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J369" s="20" t="s">
         <v>10</v>
@@ -10752,13 +10746,13 @@
         <v>15</v>
       </c>
       <c r="G370" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H370" s="7">
         <v>15</v>
       </c>
       <c r="I370" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J370" s="20" t="s">
         <v>10</v>
@@ -10774,13 +10768,13 @@
         <v>16</v>
       </c>
       <c r="G371" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H371" s="7">
         <v>16</v>
       </c>
       <c r="I371" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J371" s="20" t="s">
         <v>10</v>
@@ -10791,7 +10785,7 @@
         <v>51</v>
       </c>
       <c r="B372" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C372" s="29" t="s">
         <v>9</v>
@@ -10800,19 +10794,19 @@
         <v>24</v>
       </c>
       <c r="E372" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F372" s="7">
         <v>1</v>
       </c>
       <c r="G372" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H372" s="7">
         <v>1</v>
       </c>
       <c r="I372" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J372" s="20" t="s">
         <v>10</v>
@@ -10828,13 +10822,13 @@
         <v>2</v>
       </c>
       <c r="G373" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H373" s="7">
         <v>2</v>
       </c>
       <c r="I373" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J373" s="20" t="s">
         <v>10</v>
@@ -10850,13 +10844,13 @@
         <v>3</v>
       </c>
       <c r="G374" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H374" s="7">
         <v>3</v>
       </c>
       <c r="I374" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J374" s="20" t="s">
         <v>10</v>
@@ -10872,13 +10866,13 @@
         <v>4</v>
       </c>
       <c r="G375" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H375" s="7">
         <v>4</v>
       </c>
       <c r="I375" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J375" s="20" t="s">
         <v>10</v>
@@ -10894,13 +10888,13 @@
         <v>5</v>
       </c>
       <c r="G376" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H376" s="7">
         <v>5</v>
       </c>
       <c r="I376" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J376" s="20" t="s">
         <v>10</v>
@@ -10916,13 +10910,13 @@
         <v>6</v>
       </c>
       <c r="G377" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H377" s="7">
         <v>6</v>
       </c>
       <c r="I377" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J377" s="20" t="s">
         <v>10</v>
@@ -10938,13 +10932,13 @@
         <v>7</v>
       </c>
       <c r="G378" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H378" s="7">
         <v>7</v>
       </c>
       <c r="I378" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J378" s="20" t="s">
         <v>10</v>
@@ -10960,13 +10954,13 @@
         <v>8</v>
       </c>
       <c r="G379" s="10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H379" s="7">
         <v>8</v>
       </c>
       <c r="I379" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J379" s="20" t="s">
         <v>10</v>
@@ -10982,13 +10976,13 @@
         <v>9</v>
       </c>
       <c r="G380" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H380" s="7">
         <v>9</v>
       </c>
       <c r="I380" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J380" s="20" t="s">
         <v>10</v>
@@ -11004,13 +10998,13 @@
         <v>10</v>
       </c>
       <c r="G381" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H381" s="7">
         <v>10</v>
       </c>
       <c r="I381" s="11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J381" s="20" t="s">
         <v>10</v>
@@ -11026,13 +11020,13 @@
         <v>11</v>
       </c>
       <c r="G382" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H382" s="7">
         <v>8</v>
       </c>
       <c r="I382" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J382" s="20" t="s">
         <v>10</v>
@@ -11048,13 +11042,13 @@
         <v>12</v>
       </c>
       <c r="G383" s="10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H383" s="7">
         <v>9</v>
       </c>
       <c r="I383" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J383" s="20" t="s">
         <v>10</v>
@@ -11070,13 +11064,13 @@
         <v>13</v>
       </c>
       <c r="G384" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H384" s="7">
         <v>10</v>
       </c>
       <c r="I384" s="11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J384" s="20" t="s">
         <v>10</v>
@@ -11087,7 +11081,7 @@
         <v>52</v>
       </c>
       <c r="B385" s="48" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C385" s="29" t="s">
         <v>9</v>
@@ -11096,19 +11090,19 @@
         <v>8</v>
       </c>
       <c r="E385" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F385" s="7">
         <v>1</v>
       </c>
       <c r="G385" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H385" s="7">
         <v>1</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J385" s="20" t="s">
         <v>10</v>
@@ -11124,13 +11118,13 @@
         <v>2</v>
       </c>
       <c r="G386" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H386" s="7">
         <v>2</v>
       </c>
       <c r="I386" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J386" s="20" t="s">
         <v>10</v>
@@ -11146,13 +11140,13 @@
         <v>3</v>
       </c>
       <c r="G387" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H387" s="7">
         <v>3</v>
       </c>
       <c r="I387" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J387" s="20" t="s">
         <v>10</v>
@@ -11168,13 +11162,13 @@
         <v>4</v>
       </c>
       <c r="G388" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H388" s="7">
         <v>4</v>
       </c>
       <c r="I388" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J388" s="20" t="s">
         <v>10</v>
@@ -11190,13 +11184,13 @@
         <v>5</v>
       </c>
       <c r="G389" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H389" s="7">
         <v>5</v>
       </c>
       <c r="I389" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J389" s="20" t="s">
         <v>10</v>
@@ -11212,13 +11206,13 @@
         <v>6</v>
       </c>
       <c r="G390" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H390" s="7">
         <v>6</v>
       </c>
       <c r="I390" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J390" s="20" t="s">
         <v>10</v>
@@ -11238,19 +11232,19 @@
         <v>8</v>
       </c>
       <c r="E391" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F391" s="7">
         <v>1</v>
       </c>
       <c r="G391" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H391" s="7">
         <v>1</v>
       </c>
       <c r="I391" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J391" s="20" t="s">
         <v>10</v>
@@ -11266,13 +11260,13 @@
         <v>2</v>
       </c>
       <c r="G392" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H392" s="7">
         <v>2</v>
       </c>
       <c r="I392" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J392" s="20" t="s">
         <v>10</v>
@@ -11288,13 +11282,13 @@
         <v>3</v>
       </c>
       <c r="G393" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H393" s="7">
         <v>3</v>
       </c>
       <c r="I393" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J393" s="20" t="s">
         <v>10</v>
@@ -11310,13 +11304,13 @@
         <v>4</v>
       </c>
       <c r="G394" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H394" s="7">
         <v>4</v>
       </c>
       <c r="I394" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J394" s="20" t="s">
         <v>10</v>
@@ -11332,13 +11326,13 @@
         <v>5</v>
       </c>
       <c r="G395" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H395" s="7">
         <v>5</v>
       </c>
       <c r="I395" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J395" s="20" t="s">
         <v>10</v>
@@ -11354,13 +11348,13 @@
         <v>6</v>
       </c>
       <c r="G396" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H396" s="7">
         <v>6</v>
       </c>
       <c r="I396" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J396" s="20" t="s">
         <v>10</v>
@@ -11376,13 +11370,13 @@
         <v>7</v>
       </c>
       <c r="G397" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H397" s="7">
         <v>7</v>
       </c>
       <c r="I397" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J397" s="20" t="s">
         <v>10</v>
@@ -11393,7 +11387,7 @@
         <v>54</v>
       </c>
       <c r="B398" s="50" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C398" s="29" t="s">
         <v>9</v>
@@ -11402,19 +11396,19 @@
         <v>8</v>
       </c>
       <c r="E398" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F398" s="7">
         <v>1</v>
       </c>
       <c r="G398" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H398" s="7">
         <v>1</v>
       </c>
       <c r="I398" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J398" s="20" t="s">
         <v>10</v>
@@ -11430,13 +11424,13 @@
         <v>2</v>
       </c>
       <c r="G399" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H399" s="7">
         <v>2</v>
       </c>
       <c r="I399" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J399" s="20" t="s">
         <v>10</v>
@@ -11452,13 +11446,13 @@
         <v>3</v>
       </c>
       <c r="G400" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H400" s="7">
         <v>3</v>
       </c>
       <c r="I400" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J400" s="20" t="s">
         <v>10</v>
@@ -11474,13 +11468,13 @@
         <v>4</v>
       </c>
       <c r="G401" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H401" s="7">
         <v>4</v>
       </c>
       <c r="I401" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J401" s="20" t="s">
         <v>10</v>
@@ -11496,13 +11490,13 @@
         <v>5</v>
       </c>
       <c r="G402" s="10" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H402" s="7">
         <v>5</v>
       </c>
       <c r="I402" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J402" s="20" t="s">
         <v>10</v>
@@ -11518,13 +11512,13 @@
         <v>6</v>
       </c>
       <c r="G403" s="10" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H403" s="7">
         <v>6</v>
       </c>
       <c r="I403" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J403" s="20" t="s">
         <v>10</v>
@@ -11540,13 +11534,13 @@
         <v>7</v>
       </c>
       <c r="G404" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H404" s="7">
         <v>7</v>
       </c>
       <c r="I404" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J404" s="20" t="s">
         <v>10</v>
@@ -11562,13 +11556,13 @@
         <v>8</v>
       </c>
       <c r="G405" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H405" s="7">
         <v>8</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J405" s="20" t="s">
         <v>10</v>
@@ -11584,13 +11578,13 @@
         <v>9</v>
       </c>
       <c r="G406" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H406" s="7">
         <v>9</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J406" s="20" t="s">
         <v>10</v>
@@ -11606,13 +11600,13 @@
         <v>10</v>
       </c>
       <c r="G407" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H407" s="7">
         <v>10</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J407" s="20" t="s">
         <v>10</v>
@@ -11628,13 +11622,13 @@
         <v>11</v>
       </c>
       <c r="G408" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H408" s="7">
         <v>11</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J408" s="20" t="s">
         <v>10</v>
@@ -11650,13 +11644,13 @@
         <v>12</v>
       </c>
       <c r="G409" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H409" s="7">
         <v>12</v>
       </c>
       <c r="I409" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J409" s="20" t="s">
         <v>10</v>
@@ -11672,13 +11666,13 @@
         <v>13</v>
       </c>
       <c r="G410" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H410" s="7">
         <v>13</v>
       </c>
       <c r="I410" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J410" s="20" t="s">
         <v>10</v>
@@ -11694,13 +11688,13 @@
         <v>14</v>
       </c>
       <c r="G411" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H411" s="7">
         <v>14</v>
       </c>
       <c r="I411" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J411" s="20" t="s">
         <v>10</v>
@@ -11716,13 +11710,13 @@
         <v>15</v>
       </c>
       <c r="G412" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H412" s="7">
         <v>15</v>
       </c>
       <c r="I412" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J412" s="20" t="s">
         <v>10</v>
@@ -11738,13 +11732,13 @@
         <v>16</v>
       </c>
       <c r="G413" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H413" s="7">
         <v>16</v>
       </c>
       <c r="I413" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J413" s="20" t="s">
         <v>10</v>
@@ -11760,13 +11754,13 @@
         <v>17</v>
       </c>
       <c r="G414" s="10" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H414" s="7">
         <v>17</v>
       </c>
       <c r="I414" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J414" s="20" t="s">
         <v>10</v>
@@ -11782,13 +11776,13 @@
         <v>18</v>
       </c>
       <c r="G415" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H415" s="7">
         <v>18</v>
       </c>
       <c r="I415" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="J415" s="20" t="s">
         <v>10</v>
@@ -11804,13 +11798,13 @@
         <v>19</v>
       </c>
       <c r="G416" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H416" s="7">
         <v>19</v>
       </c>
       <c r="I416" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J416" s="20" t="s">
         <v>10</v>
@@ -11821,7 +11815,7 @@
         <v>56</v>
       </c>
       <c r="B417" s="48" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C417" s="29" t="s">
         <v>9</v>
@@ -11830,19 +11824,19 @@
         <v>7</v>
       </c>
       <c r="E417" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F417" s="7">
         <v>1</v>
       </c>
       <c r="G417" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H417" s="7">
         <v>1</v>
       </c>
       <c r="I417" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J417" s="20" t="s">
         <v>10</v>
@@ -11858,13 +11852,13 @@
         <v>2</v>
       </c>
       <c r="G418" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H418" s="7">
         <v>2</v>
       </c>
       <c r="I418" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J418" s="20" t="s">
         <v>10</v>
@@ -11880,13 +11874,13 @@
         <v>3</v>
       </c>
       <c r="G419" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H419" s="7">
         <v>3</v>
       </c>
       <c r="I419" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J419" s="20" t="s">
         <v>10</v>
@@ -11902,13 +11896,13 @@
         <v>4</v>
       </c>
       <c r="G420" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H420" s="7">
         <v>4</v>
       </c>
       <c r="I420" s="11" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="J420" s="20" t="s">
         <v>10</v>
@@ -11924,13 +11918,13 @@
         <v>5</v>
       </c>
       <c r="G421" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H421" s="7">
         <v>5</v>
       </c>
       <c r="I421" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J421" s="20" t="s">
         <v>10</v>
@@ -11946,13 +11940,13 @@
         <v>6</v>
       </c>
       <c r="G422" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H422" s="7">
         <v>6</v>
       </c>
       <c r="I422" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J422" s="20" t="s">
         <v>10</v>
@@ -11968,13 +11962,13 @@
         <v>7</v>
       </c>
       <c r="G423" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H423" s="7">
         <v>7</v>
       </c>
       <c r="I423" s="11" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J423" s="20" t="s">
         <v>10</v>
@@ -11990,13 +11984,13 @@
         <v>8</v>
       </c>
       <c r="G424" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H424" s="7">
         <v>8</v>
       </c>
       <c r="I424" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J424" s="20" t="s">
         <v>10</v>
@@ -12012,13 +12006,13 @@
         <v>9</v>
       </c>
       <c r="G425" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H425" s="7">
         <v>9</v>
       </c>
       <c r="I425" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J425" s="20" t="s">
         <v>10</v>
@@ -12034,13 +12028,13 @@
         <v>10</v>
       </c>
       <c r="G426" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H426" s="7">
         <v>10</v>
       </c>
       <c r="I426" s="11" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J426" s="20" t="s">
         <v>10</v>
@@ -12056,13 +12050,13 @@
         <v>11</v>
       </c>
       <c r="G427" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H427" s="7">
         <v>11</v>
       </c>
       <c r="I427" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J427" s="20" t="s">
         <v>10</v>
@@ -12078,13 +12072,13 @@
         <v>12</v>
       </c>
       <c r="G428" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H428" s="7">
         <v>12</v>
       </c>
       <c r="I428" s="11" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J428" s="20" t="s">
         <v>10</v>
@@ -12100,13 +12094,13 @@
         <v>13</v>
       </c>
       <c r="G429" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H429" s="7">
         <v>13</v>
       </c>
       <c r="I429" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J429" s="20" t="s">
         <v>10</v>
@@ -12122,13 +12116,13 @@
         <v>14</v>
       </c>
       <c r="G430" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H430" s="7">
         <v>14</v>
       </c>
       <c r="I430" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J430" s="20" t="s">
         <v>10</v>
@@ -12139,7 +12133,7 @@
         <v>57</v>
       </c>
       <c r="B431" s="28" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C431" s="29" t="s">
         <v>9</v>
@@ -12148,19 +12142,19 @@
         <v>7</v>
       </c>
       <c r="E431" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F431" s="7">
         <v>1</v>
       </c>
       <c r="G431" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H431" s="7">
         <v>1</v>
       </c>
       <c r="I431" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J431" s="20" t="s">
         <v>10</v>
@@ -12176,13 +12170,13 @@
         <v>2</v>
       </c>
       <c r="G432" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H432" s="7">
         <v>2</v>
       </c>
       <c r="I432" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J432" s="20" t="s">
         <v>10</v>
@@ -12198,13 +12192,13 @@
         <v>3</v>
       </c>
       <c r="G433" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H433" s="7">
         <v>3</v>
       </c>
       <c r="I433" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J433" s="20" t="s">
         <v>10</v>
@@ -12220,13 +12214,13 @@
         <v>4</v>
       </c>
       <c r="G434" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H434" s="7">
         <v>4</v>
       </c>
       <c r="I434" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J434" s="3" t="s">
         <v>13</v>
@@ -12242,13 +12236,13 @@
         <v>5</v>
       </c>
       <c r="G435" s="10" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="H435" s="7">
         <v>5</v>
       </c>
       <c r="I435" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J435" s="20" t="s">
         <v>10</v>
@@ -12264,13 +12258,13 @@
         <v>6</v>
       </c>
       <c r="G436" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H436" s="7">
         <v>6</v>
       </c>
       <c r="I436" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J436" s="3" t="s">
         <v>13</v>
@@ -12281,7 +12275,7 @@
         <v>58</v>
       </c>
       <c r="B437" s="58" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C437" s="38" t="s">
         <v>9</v>
@@ -12290,19 +12284,19 @@
         <v>7</v>
       </c>
       <c r="E437" s="38" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F437" s="7">
         <v>1</v>
       </c>
       <c r="G437" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H437" s="7">
         <v>1</v>
       </c>
       <c r="I437" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J437" s="20" t="s">
         <v>10</v>
@@ -12318,13 +12312,13 @@
         <v>2</v>
       </c>
       <c r="G438" s="10" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="H438" s="7">
         <v>2</v>
       </c>
       <c r="I438" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J438" s="20" t="s">
         <v>10</v>
@@ -12340,13 +12334,13 @@
         <v>3</v>
       </c>
       <c r="G439" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H439" s="7">
         <v>3</v>
       </c>
       <c r="I439" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J439" s="20" t="s">
         <v>10</v>
@@ -12362,13 +12356,13 @@
         <v>4</v>
       </c>
       <c r="G440" s="10" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="H440" s="7">
         <v>4</v>
       </c>
       <c r="I440" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J440" s="20" t="s">
         <v>10</v>
@@ -12379,7 +12373,7 @@
         <v>59</v>
       </c>
       <c r="B441" s="55" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C441" s="29" t="s">
         <v>9</v>
@@ -12388,19 +12382,19 @@
         <v>8</v>
       </c>
       <c r="E441" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F441" s="7">
         <v>1</v>
       </c>
       <c r="G441" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H441" s="7">
         <v>1</v>
       </c>
       <c r="I441" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J441" s="20" t="s">
         <v>10</v>
@@ -12416,13 +12410,13 @@
         <v>2</v>
       </c>
       <c r="G442" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H442" s="7">
         <v>2</v>
       </c>
       <c r="I442" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J442" s="20" t="s">
         <v>10</v>
@@ -12433,7 +12427,7 @@
         <v>60</v>
       </c>
       <c r="B443" s="55" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C443" s="29" t="s">
         <v>9</v>
@@ -12442,19 +12436,19 @@
         <v>8</v>
       </c>
       <c r="E443" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F443" s="7">
         <v>1</v>
       </c>
       <c r="G443" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H443" s="7">
         <v>1</v>
       </c>
       <c r="I443" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J443" s="20" t="s">
         <v>10</v>
@@ -12470,13 +12464,13 @@
         <v>2</v>
       </c>
       <c r="G444" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H444" s="7">
         <v>2</v>
       </c>
       <c r="I444" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J444" s="20" t="s">
         <v>10</v>
@@ -12492,13 +12486,13 @@
         <v>3</v>
       </c>
       <c r="G445" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H445" s="7">
         <v>3</v>
       </c>
       <c r="I445" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J445" s="20" t="s">
         <v>10</v>
@@ -12509,7 +12503,7 @@
         <v>61</v>
       </c>
       <c r="B446" s="28" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C446" s="29" t="s">
         <v>9</v>
@@ -12518,19 +12512,19 @@
         <v>7</v>
       </c>
       <c r="E446" s="31" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F446" s="7">
         <v>1</v>
       </c>
       <c r="G446" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H446" s="7">
         <v>1</v>
       </c>
       <c r="I446" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J446" s="20" t="s">
         <v>10</v>
@@ -12546,13 +12540,13 @@
         <v>2</v>
       </c>
       <c r="G447" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H447" s="7">
         <v>2</v>
       </c>
       <c r="I447" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J447" s="20" t="s">
         <v>10</v>
@@ -12568,13 +12562,13 @@
         <v>3</v>
       </c>
       <c r="G448" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H448" s="7">
         <v>3</v>
       </c>
       <c r="I448" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J448" s="20" t="s">
         <v>10</v>
@@ -12590,13 +12584,13 @@
         <v>4</v>
       </c>
       <c r="G449" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H449" s="7">
         <v>4</v>
       </c>
       <c r="I449" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J449" s="20" t="s">
         <v>10</v>
@@ -12612,13 +12606,13 @@
         <v>5</v>
       </c>
       <c r="G450" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H450" s="7">
         <v>5</v>
       </c>
       <c r="I450" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J450" s="20" t="s">
         <v>10</v>
@@ -12634,13 +12628,13 @@
         <v>6</v>
       </c>
       <c r="G451" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H451" s="7">
         <v>6</v>
       </c>
       <c r="I451" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J451" s="20" t="s">
         <v>10</v>
@@ -12656,13 +12650,13 @@
         <v>7</v>
       </c>
       <c r="G452" s="10" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H452" s="7">
         <v>7</v>
       </c>
       <c r="I452" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J452" s="20" t="s">
         <v>10</v>
@@ -12678,13 +12672,13 @@
         <v>8</v>
       </c>
       <c r="G453" s="10" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H453" s="7">
         <v>8</v>
       </c>
       <c r="I453" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J453" s="20" t="s">
         <v>10</v>
@@ -12700,13 +12694,13 @@
         <v>9</v>
       </c>
       <c r="G454" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="H454" s="7">
         <v>9</v>
       </c>
       <c r="I454" s="11" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J454" s="20" t="s">
         <v>10</v>
@@ -12722,13 +12716,13 @@
         <v>10</v>
       </c>
       <c r="G455" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H455" s="7">
         <v>10</v>
       </c>
       <c r="I455" s="11" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J455" s="20" t="s">
         <v>10</v>
@@ -12744,13 +12738,13 @@
         <v>11</v>
       </c>
       <c r="G456" s="10" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="H456" s="7">
         <v>11</v>
       </c>
       <c r="I456" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J456" s="20" t="s">
         <v>10</v>
@@ -12766,13 +12760,13 @@
         <v>12</v>
       </c>
       <c r="G457" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H457" s="7">
         <v>12</v>
       </c>
       <c r="I457" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J457" s="20" t="s">
         <v>10</v>
@@ -12788,13 +12782,13 @@
         <v>13</v>
       </c>
       <c r="G458" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H458" s="7">
         <v>13</v>
       </c>
       <c r="I458" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J458" s="20" t="s">
         <v>10</v>
@@ -12805,7 +12799,7 @@
         <v>62</v>
       </c>
       <c r="B459" s="50" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C459" s="29" t="s">
         <v>9</v>
@@ -12814,19 +12808,19 @@
         <v>7</v>
       </c>
       <c r="E459" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F459" s="7">
         <v>1</v>
       </c>
       <c r="G459" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H459" s="7">
         <v>1</v>
       </c>
       <c r="I459" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J459" s="20" t="s">
         <v>10</v>
@@ -12842,13 +12836,13 @@
         <v>2</v>
       </c>
       <c r="G460" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H460" s="7">
         <v>2</v>
       </c>
       <c r="I460" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J460" s="20" t="s">
         <v>10</v>
@@ -12864,13 +12858,13 @@
         <v>3</v>
       </c>
       <c r="G461" s="10" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="H461" s="7">
         <v>3</v>
       </c>
       <c r="I461" s="11" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="J461" s="20" t="s">
         <v>10</v>
@@ -12886,13 +12880,13 @@
         <v>4</v>
       </c>
       <c r="G462" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H462" s="7">
         <v>4</v>
       </c>
       <c r="I462" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J462" s="20" t="s">
         <v>10</v>
@@ -12908,13 +12902,13 @@
         <v>5</v>
       </c>
       <c r="G463" s="10" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="H463" s="7">
         <v>5</v>
       </c>
       <c r="I463" s="11" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J463" s="20" t="s">
         <v>10</v>
@@ -12930,13 +12924,13 @@
         <v>6</v>
       </c>
       <c r="G464" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="H464" s="7">
         <v>6</v>
       </c>
       <c r="I464" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="J464" s="20" t="s">
         <v>10</v>
@@ -12952,13 +12946,13 @@
         <v>7</v>
       </c>
       <c r="G465" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H465" s="7">
         <v>7</v>
       </c>
       <c r="I465" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J465" s="20" t="s">
         <v>10</v>
@@ -12969,7 +12963,7 @@
         <v>63</v>
       </c>
       <c r="B466" s="50" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C466" s="29" t="s">
         <v>9</v>
@@ -12978,19 +12972,19 @@
         <v>8</v>
       </c>
       <c r="E466" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F466" s="7">
         <v>1</v>
       </c>
       <c r="G466" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H466" s="7">
         <v>1</v>
       </c>
       <c r="I466" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J466" s="20" t="s">
         <v>10</v>
@@ -13006,13 +13000,13 @@
         <v>2</v>
       </c>
       <c r="G467" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H467" s="7">
         <v>2</v>
       </c>
       <c r="I467" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J467" s="20" t="s">
         <v>10</v>
@@ -13028,13 +13022,13 @@
         <v>3</v>
       </c>
       <c r="G468" s="10" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="H468" s="7">
         <v>3</v>
       </c>
       <c r="I468" s="11" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="J468" s="20" t="s">
         <v>10</v>
@@ -13050,13 +13044,13 @@
         <v>4</v>
       </c>
       <c r="G469" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H469" s="7">
         <v>4</v>
       </c>
       <c r="I469" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J469" s="20" t="s">
         <v>10</v>
@@ -13072,13 +13066,13 @@
         <v>5</v>
       </c>
       <c r="G470" s="10" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="H470" s="7">
         <v>5</v>
       </c>
       <c r="I470" s="11" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="J470" s="20" t="s">
         <v>10</v>
@@ -13094,13 +13088,13 @@
         <v>6</v>
       </c>
       <c r="G471" s="10" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="H471" s="7">
         <v>6</v>
       </c>
       <c r="I471" s="11" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="J471" s="20" t="s">
         <v>10</v>
@@ -13116,13 +13110,13 @@
         <v>7</v>
       </c>
       <c r="G472" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H472" s="7">
         <v>7</v>
       </c>
       <c r="I472" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J472" s="20" t="s">
         <v>10</v>
@@ -13133,7 +13127,7 @@
         <v>64</v>
       </c>
       <c r="B473" s="50" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C473" s="29" t="s">
         <v>9</v>
@@ -13142,19 +13136,19 @@
         <v>7</v>
       </c>
       <c r="E473" s="31" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F473" s="7">
         <v>1</v>
       </c>
       <c r="G473" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H473" s="7">
         <v>1</v>
       </c>
       <c r="I473" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J473" s="20" t="s">
         <v>10</v>
@@ -13170,13 +13164,13 @@
         <v>2</v>
       </c>
       <c r="G474" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H474" s="7">
         <v>2</v>
       </c>
       <c r="I474" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J474" s="20" t="s">
         <v>10</v>
@@ -13192,13 +13186,13 @@
         <v>3</v>
       </c>
       <c r="G475" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H475" s="7">
         <v>3</v>
       </c>
       <c r="I475" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J475" s="20" t="s">
         <v>10</v>
@@ -13214,13 +13208,13 @@
         <v>4</v>
       </c>
       <c r="G476" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H476" s="7">
         <v>4</v>
       </c>
       <c r="I476" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="J476" s="20" t="s">
         <v>10</v>
@@ -13236,13 +13230,13 @@
         <v>5</v>
       </c>
       <c r="G477" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H477" s="7">
         <v>5</v>
       </c>
       <c r="I477" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J477" s="20" t="s">
         <v>10</v>
@@ -13258,13 +13252,13 @@
         <v>6</v>
       </c>
       <c r="G478" s="10" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="H478" s="7">
         <v>6</v>
       </c>
       <c r="I478" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J478" s="20" t="s">
         <v>10</v>
@@ -13280,13 +13274,13 @@
         <v>7</v>
       </c>
       <c r="G479" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H479" s="7">
         <v>7</v>
       </c>
       <c r="I479" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J479" s="20" t="s">
         <v>10</v>
@@ -13306,19 +13300,19 @@
         <v>24</v>
       </c>
       <c r="E480" s="31" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F480" s="7">
         <v>1</v>
       </c>
       <c r="G480" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H480" s="7">
         <v>1</v>
       </c>
       <c r="I480" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J480" s="20" t="s">
         <v>10</v>
@@ -13334,13 +13328,13 @@
         <v>2</v>
       </c>
       <c r="G481" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H481" s="7">
         <v>2</v>
       </c>
       <c r="I481" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J481" s="20" t="s">
         <v>10</v>
@@ -13356,13 +13350,13 @@
         <v>3</v>
       </c>
       <c r="G482" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H482" s="7">
         <v>3</v>
       </c>
       <c r="I482" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J482" s="20" t="s">
         <v>10</v>
@@ -13378,13 +13372,13 @@
         <v>4</v>
       </c>
       <c r="G483" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H483" s="7">
         <v>4</v>
       </c>
       <c r="I483" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J483" s="20" t="s">
         <v>10</v>
@@ -13400,13 +13394,13 @@
         <v>5</v>
       </c>
       <c r="G484" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H484" s="7">
         <v>5</v>
       </c>
       <c r="I484" s="11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J484" s="3" t="s">
         <v>13</v>
@@ -13417,7 +13411,7 @@
         <v>66</v>
       </c>
       <c r="B485" s="48" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C485" s="29" t="s">
         <v>9</v>
@@ -13426,19 +13420,19 @@
         <v>24</v>
       </c>
       <c r="E485" s="31" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F485" s="7">
         <v>1</v>
       </c>
       <c r="G485" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H485" s="7">
         <v>1</v>
       </c>
       <c r="I485" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J485" s="20" t="s">
         <v>10</v>
@@ -13454,13 +13448,13 @@
         <v>2</v>
       </c>
       <c r="G486" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H486" s="7">
         <v>2</v>
       </c>
       <c r="I486" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J486" s="20" t="s">
         <v>10</v>
@@ -13476,13 +13470,13 @@
         <v>3</v>
       </c>
       <c r="G487" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H487" s="7">
         <v>3</v>
       </c>
       <c r="I487" s="11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J487" s="3" t="s">
         <v>13</v>
@@ -13493,7 +13487,7 @@
         <v>67</v>
       </c>
       <c r="B488" s="28" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C488" s="29" t="s">
         <v>9</v>
@@ -13502,19 +13496,19 @@
         <v>8</v>
       </c>
       <c r="E488" s="31" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F488" s="7">
         <v>1</v>
       </c>
       <c r="G488" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H488" s="7">
         <v>1</v>
       </c>
       <c r="I488" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J488" s="20" t="s">
         <v>10</v>
@@ -13530,13 +13524,13 @@
         <v>2</v>
       </c>
       <c r="G489" s="18" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H489" s="7">
         <v>2</v>
       </c>
       <c r="I489" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J489" s="20" t="s">
         <v>10</v>
@@ -13552,13 +13546,13 @@
         <v>3</v>
       </c>
       <c r="G490" s="18" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H490" s="7">
         <v>3</v>
       </c>
       <c r="I490" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J490" s="20" t="s">
         <v>10</v>
@@ -13574,13 +13568,13 @@
         <v>4</v>
       </c>
       <c r="G491" s="18" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H491" s="7">
         <v>4</v>
       </c>
       <c r="I491" s="17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J491" s="20" t="s">
         <v>10</v>
@@ -13596,13 +13590,13 @@
         <v>5</v>
       </c>
       <c r="G492" s="18" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H492" s="7">
         <v>5</v>
       </c>
       <c r="I492" s="17" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J492" s="20" t="s">
         <v>10</v>
@@ -13618,13 +13612,13 @@
         <v>6</v>
       </c>
       <c r="G493" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H493" s="7">
         <v>6</v>
       </c>
       <c r="I493" s="17" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J493" s="20" t="s">
         <v>10</v>
@@ -13635,7 +13629,7 @@
         <v>68</v>
       </c>
       <c r="B494" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C494" s="29" t="s">
         <v>9</v>
@@ -13644,19 +13638,19 @@
         <v>7</v>
       </c>
       <c r="E494" s="31" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F494" s="7">
         <v>1</v>
       </c>
       <c r="G494" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H494" s="7">
         <v>1</v>
       </c>
       <c r="I494" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J494" s="20" t="s">
         <v>10</v>
@@ -13672,13 +13666,13 @@
         <v>2</v>
       </c>
       <c r="G495" s="18" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H495" s="7">
         <v>2</v>
       </c>
       <c r="I495" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J495" s="20" t="s">
         <v>10</v>
@@ -13694,13 +13688,13 @@
         <v>3</v>
       </c>
       <c r="G496" s="18" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H496" s="7">
         <v>3</v>
       </c>
       <c r="I496" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J496" s="20" t="s">
         <v>10</v>
@@ -13716,13 +13710,13 @@
         <v>4</v>
       </c>
       <c r="G497" s="18" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H497" s="7">
         <v>4</v>
       </c>
       <c r="I497" s="17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J497" s="20" t="s">
         <v>10</v>
@@ -13738,13 +13732,13 @@
         <v>5</v>
       </c>
       <c r="G498" s="18" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H498" s="7">
         <v>5</v>
       </c>
       <c r="I498" s="17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J498" s="20" t="s">
         <v>10</v>
@@ -13760,13 +13754,13 @@
         <v>6</v>
       </c>
       <c r="G499" s="18" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H499" s="7">
         <v>6</v>
       </c>
       <c r="I499" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J499" s="20" t="s">
         <v>10</v>
@@ -13846,7 +13840,6 @@
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
-    <mergeCell ref="B64:B70"/>
     <mergeCell ref="C64:C70"/>
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="A71:A77"/>
@@ -13900,6 +13893,7 @@
     <mergeCell ref="B93:B103"/>
     <mergeCell ref="C93:C103"/>
     <mergeCell ref="D93:D103"/>
+    <mergeCell ref="B64:B70"/>
     <mergeCell ref="A107:A110"/>
     <mergeCell ref="B107:B110"/>
     <mergeCell ref="C107:C110"/>
